--- a/patch/patchList_appCore.xlsx
+++ b/patch/patchList_appCore.xlsx
@@ -1,13 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\patch\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A13708D-E3E4-4A8F-8190-FD592B75230E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
+    <sheet name="Core -patchList" sheetId="1" r:id="rId1"/>
+    <sheet name="Core- elementi porting manuale" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,10 +25,68 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>18.07.2025</t>
+  </si>
+  <si>
+    <t>Nome Patch (AppCore)</t>
+  </si>
+  <si>
+    <t>SRC_X3_V12_X_VAC_1_0</t>
+  </si>
+  <si>
+    <t>presente solo la funzione YVBPC(Consultazione Clienti)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Elemento X3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Codice elemento</t>
+  </si>
+  <si>
+    <t>Note - Descrizione</t>
+  </si>
+  <si>
+    <t>campo  di tabella</t>
+  </si>
+  <si>
+    <t>campo di videata</t>
+  </si>
+  <si>
+    <t>menù locale *</t>
+  </si>
+  <si>
+    <t>* Avere la premura di controllare il range delle numerazioni dei capitoli dedicati</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Screenshot</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -37,7 +102,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -45,15 +110,64 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +444,102 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="46.28515625" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" customWidth="1"/>
+    <col min="3" max="3" width="57.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6417960-6C6D-4CF0-8DBB-564FBBBC9FC3}">
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" customWidth="1"/>
+    <col min="4" max="4" width="80.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>